--- a/bots/crawl_ch/output/toilet_coop_2022-08-07.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-07.xlsx
@@ -531,135 +531,135 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140ST</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.02/1ST</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>140ST</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.02/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1079,265 +1079,265 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.40/1ST</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.40/1ST</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2181,135 +2181,135 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>3650495</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.12/1ST</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3650495</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.12/1ST</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:12</t>
+          <t>2022-08-07 20:58:33</t>
         </is>
       </c>
     </row>
